--- a/PLSstatic_predicted_variables_matrix_9.xlsx
+++ b/PLSstatic_predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2752434333585618</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.270616415487189</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2661975086165228</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.262073549246034</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2583036565762987</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2549250540252893</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2519576479887132</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2494990689153508</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2473586619734079</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2456168511799983</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2442555640768196</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2432518247572165</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2425793197403358</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2422095963356161</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2421130421541848</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2422596846426365</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2426198364057104</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.243164607720224</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2438663047332428</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2446987295518323</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2456373965390245</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2466596775081547</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2477448870807282</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2488743181954752</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2500312366000325</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2512008421044295</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.252370203416214</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2535281725031904</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.254665283635679</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2557625285021368</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.256819205197709</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2578313595789105</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2588148649762642</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2597522105663783</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2606412904999626</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2614810150501151</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2622710478410218</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2630116880269537</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2637037706931487</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2643485191411021</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.26494764204944</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2655030646379679</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2660169296433519</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2665250910628918</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.2128610726816496</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2215797086242373</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2285708187908906</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.234081438838296</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2383329098019157</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2415213932226392</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2438193065287733</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2453664562060446</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2463123517101397</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2467634173853595</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2468165251483804</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2465551117326531</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2460505047742158</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2453633902545456</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2445451359896598</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2436389614840648</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2426809680717331</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2417010453563309</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2407236693418102</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2397686062783637</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2388515346086137</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2379845957177374</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2371768826012711</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.236434874135366</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2357628213956305</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2351630914263393</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2346364730005316</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2341824482140158</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.233799433199676</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2334962618997166</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2332595918833955</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2330849413118216</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2329555855183563</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2328802288582456</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2328546953506252</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2328744077285513</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2329348477165402</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2330316387612864</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2331605891568224</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2333176973792605</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2334992543609958</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.233701779197196</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2339220552706113</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2341447078459822</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1849101774841272</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1935068319941353</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2002547901994829</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2055403438490607</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2096689099897884</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2128815481886114</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2153682618636452</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2172237506828669</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2186778129149268</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2197670795250916</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2205637156642481</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2211255229666791</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2214984089923964</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2217189769636878</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2218165964956117</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2218150148144051</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2217336016912656</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2215883066788997</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2213923919063041</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2211569908833643</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2208915333134365</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2206040674333593</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2203015045606754</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2199898050415223</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2196741204179029</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2193589031661032</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2190479926280515</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2187446836220477</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2184517825606849</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2182087736270041</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2179773688852765</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2177587372583031</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2175204432155553</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2173014066254336</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.217103023542756</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.216925424052747</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2167685352319953</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2166321649781924</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2165160127709757</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2164196077983236</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2163425389847779</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2162842324326903</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2162440440257902</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2161897817051027</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.06669979428514944</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.06319292885422992</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.06055144951111918</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.05866950273474624</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.05744374206598232</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.05677705832526946</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.05658046942145814</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.05676250794673526</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.05728372949913836</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.05805911112608196</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.05903413481098389</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06016162325616651</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06140090546848324</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.0627171327358608</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.06408064570320635</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06546639312527155</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06685340425395345</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06822431330760159</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06956493237048675</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.07086386818460891</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.07211217815242307</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.07330306113547871</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.07443157909734203</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.07549440616851368</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.07648960222998322</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.07741640857988663</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07827506364648404</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07906663703638209</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07979288046369648</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.08042117379475355</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.08098949340623351</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.08150105963119061</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08199665195166259</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08244087008349701</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08283760680574526</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08319056313683484</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08350336434162893</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08377953283357305</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08402245778419147</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.0842353885127872</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08442136204533976</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08458324835313456</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08472372126575578</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.08488271806265973</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1948914725883204</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.2022463016191783</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2078494045416154</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2119471477989941</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2147612884239707</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2164907850549563</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2173134818093201</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.217547739246719</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2169925993163459</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2159550002015322</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2145429163478316</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2128508476577972</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2109604890177569</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.208941876296199</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2068545009618291</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2047483564200148</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2026649155967097</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2006380419834211</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.198694836549064</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1968564229783062</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1951386737406996</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1935528795157201</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1921063644893491</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1908030500030232</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1896439689858814</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1886277335469679</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1877509580540254</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1870086399851327</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1863945008108085</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1859386487095358</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.185592901264547</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1853481241028614</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1851540169608101</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1850498976878111</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1850269371018533</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1850759190059896</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1851880003993713</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1853548188170853</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1855685361324165</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1858219148449529</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1861081742058321</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1864211733331274</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.186755342181846</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1870694228774736</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4226060005047479</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4179139341106586</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4138760762027995</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4104553666477909</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4076085326232989</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4052900503505572</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.4034544590394813</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.4021266722476491</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.4011282022483373</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.4004845309367497</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.4001587681487417</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.4001161432687517</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.4003239938834839</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4007517012843023</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.4013706240236836</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.4021540391667583</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4030770925675088</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.4041167563086302</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4052517902056637</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4064627040986241</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.4077317180476554</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.4090427182068592</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4103812068839536</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4117342459930236</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4130903937153251</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4144396346740921</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.415773304299398</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4170840083160652</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4183655384453882</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4195705896992605</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4207358074258307</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4218585992711483</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4229847775973279</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.424065139573963</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4250988128563931</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4260855426615795</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4270255682817257</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4279195474369322</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4287684897615142</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4295736972480615</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4303367038512941</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4310592315133792</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4317431411650408</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.432446401730379</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1863364568069906</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1783979116770365</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1722658048909112</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1674253838890428</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1635173500124952</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.160292976931116</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1575816367675237</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.155284348377669</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1532923407024009</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1515649946856959</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1500683088032656</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1487784977462357</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1476787610976081</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1467564727799521</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1460012610653663</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.145403768312784</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1449548931754197</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.144645368145933</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1444655652852646</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1444054526471869</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1444546457820083</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1446025148154857</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1448383194538186</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1451513529637841</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1455310825299661</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1459672779994687</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1464501243355707</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1469703154493397</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.147519128712322</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.148047464435652</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1485969541538845</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1491592323293377</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1497625274713865</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1503579533349631</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1509408060707478</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1515079391955982</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1520566782197646</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1525847639745428</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1530903558302567</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.153572007056498</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1540287023300768</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.154459771744752</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.154864883085145</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1552759788319435</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.388888929441188</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3758026885125377</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3645347895156525</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3549723249190838</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3469767729985635</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3403990774651875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3350892198070043</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3310002884484231</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.32778686292454</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3254333755808152</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3238241864859619</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3228538281681833</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3224272019290823</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.322459061293887</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3228733491707503</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3236024940404318</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3245867096487077</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3257733218385038</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3271161343359471</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.328574838132296</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3301144649001485</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3317048825950231</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3333203303142472</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3349389891388466</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3365425857566293</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3381160259526119</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3396470554287085</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3411259458015886</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3425452039830313</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3438785700481209</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3451379781707847</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3463233976912223</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3474640347566455</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3485329691171369</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.349530467339509</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3504582552284223</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3513187349979944</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3521147941535766</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3528496793669019</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3535269337043515</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3541501742774926</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3547231535988656</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3552496468914937</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3557747447604234</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3824781351869495</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3879136632729072</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3922648499204419</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3957112176463075</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3983999223973849</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4004528360301655</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4019719386183055</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4030627863336675</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4037530564665724</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4041343441099922</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4042607062700216</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4041793506661697</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4039314789562125</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4035530855909121</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4030755988757329</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4025263971442985</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4019292335453528</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4013045947085174</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4006700116252207</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4000403358032758</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3994279898027459</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3988431983384169</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3982942040039245</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.397787470149224</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3973278723816079</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3969188794471784</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3965627237955566</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3962605618661212</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3960126240052425</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3958257775895461</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3956919998547915</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3956093337316505</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3955674461823835</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3955719483509322</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3956200215821925</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3957085143317697</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3958342240357222</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3959939566880187</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3961845649466665</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3964029886014776</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3966462527346267</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3969115240216714</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3971961151015246</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3974883652270219</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.220510056243839</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2153995575556808</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2117252604814599</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2091685216938551</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2074733475928605</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2064362100103404</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2058968924308541</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2057930844716187</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.205906615306794</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2062202947252623</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.206679506136636</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2072426741553468</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.2078788839276814</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2085654002082272</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.2092856591214572</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2100276924529515</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2107829074554162</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2115451531455138</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.212310014802397</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2130742883056411</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2138355946898992</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.2145921028157283</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.2153423344198899</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2160850311151248</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2168190672794387</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2175433963338207</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2182570207765911</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2189589786344724</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2196483408052122</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2202690725351643</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2208782977643288</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2214759553860222</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2221132485852415</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2227339283093293</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2233366682994813</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2239211494312043</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2244871591898393</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2250345340811089</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2255631649525318</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2260731046605856</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2265642520501605</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2270366959154125</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2274905933148743</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2279752350393087</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.08224617208314684</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.07560264940963489</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.07092554916061311</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.06789649687998896</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.06623653691638444</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.06570287275814933</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.06608525085803715</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.06715013529054356</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.06886457722341847</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.07102050144354261</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.07350506051612569</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.07622220747397165</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.07909074040614858</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.08204244947288911</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.08502048935622544</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.08797795654317281</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.09087664236903073</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.09368593556834419</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09638185192221803</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.09894617232219927</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.1013656739334678</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.1036314420414374</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.1057382525881053</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1076840173713429</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1094692854380244</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.1110967954068308</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1125710743673992</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1138980796753803</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1150848804488212</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1161038765942085</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.116998734115811</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1177789862405167</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1184890830963163</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1191018234063114</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1196262941667309</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.120071482694134</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1204459944457443</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1207579823098813</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1210151056295755</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.12122453524188</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.121392839672385</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1215260774039605</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1216297655326943</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1217399496074797</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.02896560388068428</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.02872982768884129</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.02920315907371458</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.03024842009959899</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.0317372409672675</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.03355400086077928</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.03559759873513045</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.03781044608323278</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.04005934103896237</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.04232094952089273</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.04454748151863588</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04670241318306072</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.0487585157255845</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.05069642154823101</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.052503336232021</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.05417188099720414</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.05569906862040477</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05708541021553432</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.05833414564594776</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.05945058768637475</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.06044156883868962</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.06131497943305853</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.062079385964526</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.06274371928274124</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.06331702310537335</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.06380825425515238</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.06422612695639193</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.06457899442620518</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.06487476183373708</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.06505533388180464</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.06519926514145755</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.06531168988382674</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.0654599374964986</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06558067890026259</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06567926175913366</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06575987699078775</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06582615718166977</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.06588124670249421</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06592783552243184</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06596826505544787</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06600433600452651</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.0660375880676027</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.0660692480980126</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.06615185460917132</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.05172071504780581</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.06855166155369352</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08138147310952944</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09071379892209448</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09703303007180898</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1007933989962214</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1024128176480715</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1023451053055951</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1007805094778714</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09808995561117609</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09453589896220543</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.09034695708982744</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.08571944999022868</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.08082015143672466</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.07578912241687641</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.07074246980201937</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0657749753719637</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06096256622146691</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.05636461186297495</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05202604270335726</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.04797929072482115</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.04424605713485905</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.04083891416083237</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.03776274954444915</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.03501606298736284</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.03259212405307454</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.03048000100755521</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0286654698920624</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0271318128383474</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.0258852738029919</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.02488390819014621</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.02410406957433727</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02349972052334146</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02307593121938885</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02281380591967197</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02269371174908965</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02269684295064121</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02280547312962057</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02300306539419431</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02327426849441649</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02360515716276398</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02398304085358969</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.0243965120414897</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.02482071480611916</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.03698674455194017</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.02658192713514885</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.01939443180128098</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.01506078183772255</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.01321123847360878</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01348362646504659</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.01553270630572214</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.01892534761775784</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.02359391854530366</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.02915590788865045</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.03537300928250772</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.04203511055640046</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.04895979200426277</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.05599086234549425</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.06299657622443347</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.06986768822429958</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.07651543330145304</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.08286949799768223</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.08887602915725559</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.09449571355157589</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.09970195165270392</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.1044791410488841</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.1088210790959698</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1127294899157335</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1162126774538994</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1192843037440816</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1219622895958622</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1242678334899526</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1262245434104089</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1278217568428885</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1291187571385203</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1301448167797797</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1309625675026269</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1315631898959023</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1319715110820779</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1322119654238685</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1323077295750352</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1322805212426195</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1321504936741957</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1319361770862309</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1316544650276909</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.131320583987796</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1309481446277142</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1305714770856299</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3460355253815054</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3630521521072674</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3765331086785375</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3866639408948606</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3937182638185726</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3980181922782364</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.399906716240764</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3998638561073538</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3979548381838328</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3946247165884201</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3901646484859935</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3848389542754598</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.378883803067757</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3725072244310497</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3658899232263337</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3591866232716781</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3525277484539588</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3460213026986859</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3397548482525748</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3337975096275453</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3282019511127651</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3230062909765436</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3182359267901619</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3139052547510743</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3100192722166681</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3065750574283614</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.303563124006412</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3009686505176404</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.2987725874726567</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.2969215052457124</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2954358776494341</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.294284883690849</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.293463253899908</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2929084631516983</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.292593835196928</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2924928332251071</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2925796683484003</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2928296183862981</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.293219257517679</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2937265789208739</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2943312262224005</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2950144598918433</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2957592146403717</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2965720408804653</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.5311375328621817</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.5348381226233843</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5355521258960448</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5338501651157985</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5302328872086294</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5251371126270146</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5189416004959847</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5120692374614481</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5045868134295349</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4968451750539244</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4890420992717602</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4813395739526003</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4738686525410311</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4667330484703107</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4600123991434242</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4537652818712636</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4480319964657467</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4428371232060023</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4381918641942115</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4340961761284801</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4305407027719647</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4275085157667504</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.424976672853406</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.422917602959917</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4213003279797966</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4200915313437253</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4192564836868093</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4187598360166686</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4185662907939678</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4186610340125912</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4189863092390173</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4195115167313705</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4202006679025171</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4210345021747423</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4219847537507535</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4230268129149599</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4241384892483455</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4252998878648757</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4264933464288519</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4277033218858972</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4289163825696312</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4301210151134633</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.431307522823639</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4324929109613387</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.1004299622800564</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.1012336718792432</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1029110411779272</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1053931635269314</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1085730012891679</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.11232433598382</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1165148772897408</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1211030862535424</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1257838422577258</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1305463694594139</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1352943778957283</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.139946163255054</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1444343409415244</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1487051681448529</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1527175405164848</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1564417952747167</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1598584211161271</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1629567466730124</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1657336574573578</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1681923749526098</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1703413194306718</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1721930691620799</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1737634221797464</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1750705620653308</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1761343259067607</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1769755702862584</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1776156296415668</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1780758604017158</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1783772637826047</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1784860729364663</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1784776542843838</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1783713468729217</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1782354843643411</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1780322361715359</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1777760393007096</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1774798462856607</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1771552518411544</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1768125161892797</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1764606016552102</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1761072206363942</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1757589312943216</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1754211727302803</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1750983679606207</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1748292683484994</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.3803435761752011</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.3794458775198744</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3777950352180687</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3753585422352548</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3721774707252181</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3683373983640271</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3639480896108525</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3592399604120573</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3540925160274027</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3487530300077498</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3433279260152248</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3379115802190067</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.332585780118755</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3274195404591287</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3224694327989032</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3177802724348222</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3133860286011206</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3093108598441567</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3055702044287881</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3021718763086617</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2991171324126261</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2964016881923728</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2940166665935815</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.2919494716268494</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.2901845820952783</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2887042642040475</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2874892040458057</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2865190625556515</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2857729566323732</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2852907583410563</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2849911934797549</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2848526593459045</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.28479011284119</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2848519290165557</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2850199470385566</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2852777191012602</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2856100446796969</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2860029854495197</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2864438868397342</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2869213899535982</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2874253529908313</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2879468760298303</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2884782205014592</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.2889584774622942</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2507436680601894</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.267763175819464</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2803681669774389</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2890668232050477</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2943665101373943</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2967578456349653</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.296704115177486</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2947051467366993</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.291026838824044</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2860690131738245</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2801470035689543</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2735372834042467</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2664795027003545</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2591788075808804</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2518084229983686</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2445123731873801</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2374082395660972</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2305898832050773</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2241300803194514</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2180830353595005</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2124867483787669</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2073652224147748</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2027305033661427</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1985845498555414</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1949209342584464</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1917263787760118</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1889821323797113</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1866651958377708</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1847494029849198</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.183223889030725</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1820436394250873</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1811768418180457</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1805784824323531</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1802315008670783</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.180106116687399</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1801739602175435</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.18040810922237</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1807832687824611</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1812759077125199</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1818642919972227</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1825286737580957</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1832511669928241</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1840157591601955</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.1848104415612503</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.5506404900736098</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5595967538835994</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5661300367392981</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5704972027507169</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5729557685254153</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5737577035487703</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5731449062924144</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.571574065550614</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5687832195734529</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5652151670452843</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5610496740674085</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5564474860409196</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5515514806421171</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.546487199814042</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5413635453904312</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5362736454863641</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5312958469272526</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.526494792514523</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5219225486289248</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5176197546773001</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5136167710550571</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5099348067390614</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5065870114522472</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5035795206398876</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5009124443394737</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4985807934700233</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4965753391609202</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4948834025258604</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4934895737989857</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4923600608542331</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4914961996851196</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4908783550613601</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.490500989420723</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4903246312389094</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4903272233418733</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4904884858170045</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4907889689542941</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.491210134515764</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4917344812585687</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4923456538729012</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4930284571662236</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4937689618848405</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.494554491507209</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4953940816330793</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.3375421936078392</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3454007177405704</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.350225217875996</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3524240273935354</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.352392891636494</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3505060063879171</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3471103800851277</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3427177032315218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3372022171619037</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3310322686454009</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3244295688530776</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3175858183387021</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3106643617741496</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3038022201180318</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.297112272243785</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2906854924569238</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2845931806274752</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2788891391808208</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2736117641920081</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2687860277906794</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2644253367447257</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2605332579813867</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2571051063277663</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2541293932171048</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2515891377493987</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2494630434965898</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.247726545942653</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.246352736553984</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2453131702670871</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2446002657105981</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.244163051714575</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.24397085914594</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2439762248648559</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2441721670767917</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2445321334895857</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2450310042167455</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2456453801824849</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2463536815357114</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2471361929070686</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2479750762683833</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2488543197874226</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2497597435902116</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2506789067627793</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2516020847814719</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.09630564358410207</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.08951906380345488</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.08609178486051097</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.08538025027147891</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.08683331565021325</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.08997982260814122</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.09441819468899651</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.09969064621516889</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1057547044998955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1122423840930013</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1189525094033397</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1257196422183684</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1324096375217147</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1389155645784952</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1451540665823522</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1510621155829732</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1565941189640003</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1617193401952249</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.166419602033578</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1706872446224675</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1745233143312117</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1779359619179753</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1809390308530473</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1835508185181082</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1857929945827329</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1876896622120668</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1892665489256637</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1905503149435099</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1915679677510237</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1922834990171496</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1927942016387363</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1931248744612528</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1933503646125491</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1934334575656366</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1933962345988197</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1932592101804339</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1930411272106603</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1927589530549322</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1924279117515707</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1920615997810237</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1916718645356672</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1912690704352984</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1908621291348055</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1904812718095814</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>2.879131182407311</v>
       </c>
+      <c r="F24" t="n">
+        <v>2.701854750513756</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.539718221923073</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.392085394812895</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.258204416803958</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.137269240616934</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.028459034405433</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.932521690717356</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.845196070545689</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.767709920977588</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.699325956515456</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.63934386764335</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.58709974611574</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.541964141468575</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.503340014501277</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.470660891964065</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.443389337828163</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.42101576837737</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.403057586757871</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.389058584016059</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.378588540702431</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.371242960629762</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.36664287256095</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.364434643723262</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.364289759144352</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.3659045315192</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.368999716732778</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.373320019703751</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.378633483551224</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.384637683394669</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.391249101259089</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.39829775821171</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.405857154958191</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.413535202963238</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.421225572713745</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.428839009246643</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.436300930701007</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.443550101027935</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.450537413417505</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.457224554080873</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.463583333912443</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.469594142254478</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.475245042402194</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.480928854675287</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.3684298938225783</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3595409790943116</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3512426277583348</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3436250005314741</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3367428937381</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3306240095733403</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3252749293826552</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3206112235014114</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3167367144028164</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3136005901447375</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3111274061306775</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3092694169849687</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3079775894140623</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3072007333358941</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3068866194121279</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3069830598533612</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3074388138596995</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3082043242583998</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3092323018056014</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3104781734135433</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3119004097807677</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3134607471368686</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3151243170362469</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3168596973131297</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3186388964338788</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3204372825589943</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3222334676708181</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3240091561512564</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.325748966224502</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3274147881957488</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3290740861691857</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3306632685081223</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3321966434892785</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3336082576615486</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.334937735531015</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3361875895524123</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3373585050607162</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3384519374859044</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3394701602268261</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3404161266747313</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3412932747504487</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3421055546099909</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3428571575464242</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3435717854614582</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.2780533944403855</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2626402776248765</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2470081044683574</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2317195944149273</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2171570144337746</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2035703293347809</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1911122505866664</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1799841778360338</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1699028731582584</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1610990178295396</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1534933466475838</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1470266220520612</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1416292968707638</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1372234265950124</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1337261119230904</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1310522988478282</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1291169381738176</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1278366326237816</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.127130877967061</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1269229800906956</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1271407114332671</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.127716756588606</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1285889867959299</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1297005954590469</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1310001210670992</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1324413794192225</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.133983323528998</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1355898467490542</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1372295423322321</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1389174401701514</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.140637997852668</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1423089803856197</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1438781062402535</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1453344352090774</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1467170300370557</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1480221130106079</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1492448148710619</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1503821253136887</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1514328346483695</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.152397303265068</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1532770335415757</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1540747378314026</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1547939043572897</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.155421940151472</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.1548944158901248</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1416763988042337</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1283756475558167</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1154246123054113</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1031215374265184</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.09166447253007881</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.08117630721577226</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07184983769363326</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06337750029928893</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0560192186240516</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.04968835309704774</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04433392095316919</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.03989724117724992</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0363121367891929</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03350777442024401</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.03141110034769777</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02994875930190327</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02904858251766587</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02864072590711816</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02865852310058078</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02903910512398657</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02972382860434106</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.0306585468239031</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.03179375205813702</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03308461298577554</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03449092723201117</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03597700606802638</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03751150577550165</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03906721807252792</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04060202756940019</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04219370313197619</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04373939349173907</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04523769319308212</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.04660551180208166</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.04790005728433455</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.04912039054292522</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.0502629273060007</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.0513255210980236</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05230754013800164</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05320966591651473</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05403355422564722</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05478191967224823</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05545810004951952</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.056081348694908</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9371959537750787</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9144351495555305</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8958809071239894</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8807797877157235</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8685355372141045</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8586730105647814</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8508103559796824</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8446674509247269</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8398877144932978</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8363731666271913</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8339106757482412</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.832347042034237</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8315531102952965</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8314172061980185</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.831841781640129</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8327410000329734</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8340389123624939</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8356680655161426</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8375684303778846</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.83968656487129</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8419749479538341</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.844391436642001</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8468988105663271</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8494643781165889</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8520596255567459</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.854659896049545</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.857244089711945</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8597943789255724</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.862295935390208</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8646255360243025</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8669536532392227</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8692136764731481</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8714910725692528</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.873630641483312</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8756732200963401</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.877622660131099</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8794806970061048</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8812495823397246</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8829321880669985</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8845320064289018</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8860527035931405</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8874984809560699</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8888737213256983</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8902550035506487</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.873541558152159</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.71596216658958</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.573623114754124</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.444919752743291</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.328639416310147</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.223832668871601</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.129722813651549</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.046030923060714</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.971175816463734</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.905243079507221</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.847675822819044</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.797936180899271</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.755493112419642</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.71981941672276</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.690391661649334</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.66669173479306</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.648209339346339</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.634444964004377</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.624912992622622</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.619144719882416</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.616691114670094</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.617125229629249</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.620044197980081</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.625070790564544</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.631854529655318</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.640072373223584</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.649428995511722</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.659656697993789</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.670514989981832</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.68179151176405</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.693320210573155</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.704912217778538</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.716510145459574</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.727868071989059</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.738902558707965</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.749539697505865</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.759720718759809</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.769401165438294</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.778549533761188</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.787145597476754</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.795179867551739</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.802651438768965</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.809566975240971</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.816198908792942</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8045798453100002</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.7790159150497007</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7569430019251969</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7379259468152535</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7216048674832185</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7076777202674939</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6958867064161461</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.685951006738572</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6777356682272081</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6711121323194231</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6658686451731834</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6618542478561968</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6589330525820325</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.656979370679751</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6558764562873247</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6555158215897688</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.65579678930944</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6566261850778906</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6579181101378074</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6595937527472909</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6615812095985107</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.663815298389522</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.66623735011151</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6687949751401675</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6714418012497227</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6741371845222437</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6768458960611277</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6795377886438607</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6821874481324172</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.684717990707254</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6872518790978538</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6896940123046446</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6920742435155541</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6942751097253484</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.69635247618397</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6983096736132126</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.7001474896063541</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.7018678639062853</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7034739651114461</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7049700566365974</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7063610328038323</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7076526496560461</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7088510651898584</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7099937097760202</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3727478433971684</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3812616120216525</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3906469949306844</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4002739153600958</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4096940587673772</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4185971470123829</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4267780351125812</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4341770294602144</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4406476713102164</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4461328233624035</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4507003126667152</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4543918712341288</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4572626893046452</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4593792307174033</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.460814920485807</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4616465818343728</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4619516711551597</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4618061741752394</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4612830397208963</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4604510497329264</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4593740425455785</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4581104210719082</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4567128893058763</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.455228370130403</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4536980653013841</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4521576250196877</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.450637399973724</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4491627533366105</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4477544140898886</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4463810788405778</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4450365845147985</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4438120898787342</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4427636428558373</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4418927639268199</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.441137762601333</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4404934699967172</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4399574754264372</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4395262296439792</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4391950204913447</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.438958259006465</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4388096629394042</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4387423791261564</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4387493458772433</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.43886510486488</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.6820760567063305</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6628508463572927</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6455403588028787</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6301006323550136</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6164587753178907</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6045227441298263</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5941883168604711</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5854749457921218</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5779346691013434</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5716998938644313</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5666193057035741</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5625784917324365</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5594698431784401</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5571908964733987</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5556446940119986</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5547401400611811</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5543922266822128</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5545221451191316</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5550573033372713</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5559312667097271</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5570836356380641</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5584598715300331</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5600110808170305</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5616937653823287</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5634695467486328</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5653048705440218</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.567170697063034</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5690421831207834</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.570898359834116</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5727071156589705</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5745230542551646</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5762780350208848</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5779708498631312</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5795444099729297</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5810368632257681</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5824491804658569</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5837808156397093</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5850322852317436</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5862051737895484</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5873019932338102</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5883258416069109</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5892805167036305</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5901701790548821</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5910074180565106</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.8351261897641017</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8229964971146595</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8123078643580435</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8029821710371418</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.79493418924829</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7880752149693918</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7823153642078151</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7775812673194616</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7737131619472646</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.770717941433078</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7684783160911055</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7669123744506608</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7659444287797228</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.765502997821441</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7655208478617225</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7659351342026057</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.766687494884048</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7677240896932495</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7689955884442869</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7704571134409151</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7720681412232654</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7737923687956977</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7755975495551929</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7774553040776234</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7793409107736458</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7812330812047672</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7831137245651011</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7849677054986841</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7867825990494763</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7885153934493659</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7902448285502555</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7919110526709132</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7935338554819978</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.795043365975809</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7964788899643742</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.797843900764186</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7991398902415127</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.8003688782665793</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.8015334782965345</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.8026368041896793</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8036822439044635</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8046735646770231</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8056146521257319</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8065267538162163</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7659833168972013</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7782240880423962</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7899147059875967</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.8008508209967199</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8109046855542522</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8200062817816405</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8281290749491529</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8353734704059225</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8416147038489934</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8469200255043945</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8513871245025434</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8550851479007591</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8580849531754674</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8604591000968294</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8622800015636501</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.86361836253316</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8645419956063858</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8651149564369498</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8653969419715489</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8654429034055299</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8653028335852045</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8650216950434262</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8646394601873153</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8641912396056255</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8637074782082138</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8632142020874332</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8627333017050585</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8622828393390858</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8618773707353349</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8614904491650976</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8611163082763744</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8608208516019918</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8606495361013369</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8606028830344113</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8606355738764258</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8607428860119384</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8609222264990543</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8611703268842479</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8614832105003097</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.861856390945224</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8622849703123753</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8627637413214519</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8632874284325334</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8638914978088508</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8275753143568068</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8221632454110165</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8180186268493322</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8150009993106638</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8129707678043787</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8117936679933359</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8113436128392354</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8115338089461747</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8121881973879658</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8132566272132333</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8146542831117114</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8163068888613496</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8181499666737394</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8201280872667616</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8221940851635476</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8243082685495522</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8264376471158293</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8285551934269751</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.830639147383946</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8326723690836249</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8346417423884638</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8365376294719766</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8383533752418959</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8400848596692327</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8417300955246113</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8432888687372432</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8447624184696579</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8461531539875177</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8474644054593666</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8486866496688716</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8498384088808609</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8509246704992433</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8519639247804025</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8529470396316805</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8538794000976656</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8547661893245987</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8556124185220718</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8564228795788806</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8572021042251216</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8579543565394591</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8586835473622811</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8593932881454625</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8600868654557684</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8607777224262962</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7793989181660012</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.772994368066253</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7682350949122935</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7649530979941457</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7629715422927098</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7621142128103942</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7622117231646508</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7630751691093155</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7646161095829442</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7666779364605598</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.769142878682976</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7719072138167221</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7748807909035489</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7779861966010594</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7811577874420098</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7843406640486964</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7874896335716856</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7905681913076118</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7935475419270208</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7964056732657739</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7991264903319781</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.8016990134500527</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.80411664186508</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.806376482343744</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8084787411001507</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.8104261765770179</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8122236101038179</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.8138774911467284</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8153955136992437</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8167788038454927</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8180423827094421</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8191969625999982</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8202607881749845</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.821235798245713</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8221313768204276</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8229568044768438</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8237209744872391</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8244322989768461</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8250986505857715</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8257273502519654</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.826325069537497</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8268978941009588</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8274513041101517</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8279943830461032</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7298045568980889</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7256521561294321</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7222805614046331</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7197947929698478</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7182217100469284</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7175351750053089</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7176745011785033</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.718452517506047</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7199964723859414</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7220936835203343</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7246469449815067</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.727563049831913</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7307548972015904</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7341428530069861</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.737655491857467</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7412298822375994</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7448115426834777</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7483541659455923</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7518191844524867</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7551752323539871</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7583975456796684</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7614673316626398</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7643711302690154</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.767100184847427</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7696498341210518</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7720189341452545</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7742093160878192</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7762252835594803</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7780731515815806</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.779763759060379</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7812969320331632</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7826847092830728</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7839450231287111</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.785086193334507</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7861193056736686</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7870552851137116</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7879048424614302</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7886783389357838</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.789385673938077</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7900361410943949</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7906385615405317</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7912010277023542</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7917309595566415</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7922459533585627</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6821161779759508</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6770144218721597</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6721437694283238</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6676657375453815</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6636787241990959</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6602351413549202</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6573542132584996</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6550384847139231</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6532404002645213</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6519506037376501</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6511297574339242</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6507343882082346</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6507191838826754</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.651038637858336</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6516482399011192</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6525053237570343</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6535696523169884</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6548038015469413</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6561733900594645</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6576471904629688</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6591971505240066</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6607983460291854</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6624288825353377</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6640697595822522</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6657047081409118</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.667320009881637</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6689043051221456</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6704483949444435</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.671945041868781</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6734177074810068</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6748257636567998</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6761684328379162</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.677424087844735</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6786207790097453</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6797586029615529</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6808386089198217</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6818625504604948</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6828327316311948</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6837518776238267</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6846230196582636</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6854494098564016</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6862344220397196</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6869814869338576</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.6876867922344242</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.5982045367614333</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5966262112373786</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.595579314875826</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5950607152316918</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5950394879593052</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5954679455613104</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5962894142022924</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5974026062997421</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5988338089148837</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.600479832380362</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.602287287745994</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.604207709137241</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6061980848451461</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6082209840710066</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.610244453800791</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.612241765365805</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6141910650690392</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.616074968168892</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6178801246109751</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.619596776833601</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6212183239884224</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6227409024782964</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6241629894251624</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6254850332489679</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6267091137467761</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6278386327469201</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6288780354554782</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6298325619212962</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.630708027554179</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6315164761727777</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6322558158891756</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6329337039290291</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6335533767512452</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6341263542088841</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6346585439787455</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6351557057675403</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6356232883058823</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6360663780683716</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6364896701899098</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6368974411119683</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6372935817622011</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6376815526509449</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.638064411393503</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6384398410120716</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7891017711459709</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7848689762187429</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7811364126572706</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7780340651266756</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7756177909980091</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7738925732891656</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7728295554782224</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7724157370645462</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7725052819955428</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7730766438485736</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7740595856741695</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7753850262333177</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7769874899594233</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7788064371615295</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.780787006633717</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7828803517407328</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7850436885379264</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7872401432612971</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7894384642322558</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7916126464940506</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7937415048706495</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7958082216047552</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7977998875378489</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7997070503747081</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8015232794981566</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8032447537407459</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8048698762309354</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8063989187241288</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8078336965612443</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8091820969594555</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8104367061694959</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8116049427780873</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8126960486970577</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8137174899775139</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8146743962466315</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8155725486106905</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8164177944671202</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8172158984731013</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8179724500461751</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8186927465143545</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8193818994081331</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8200446217383602</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8206852705350116</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8213173675045411</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5554203090769313</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5572271117288567</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5586108033388625</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5597804252496124</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5608728281694213</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5619738874159683</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5631337895726676</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5643250018864496</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5656684006293745</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.567101800600713</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5686159108042244</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5701974189923844</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5718308588494746</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5735000332456889</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5751889953854712</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5768826996108727</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5785674119564581</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5802309469959308</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5818627798472915</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5834540693177094</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5849976187672713</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5864877943801067</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5879204154544534</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5892926275610555</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5906027666145123</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5918502197982115</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5930352876954305</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5941590507734031</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5952232424465527</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5962405637009511</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5971973336098514</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5980981419031209</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5989419450325468</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5997425960042111</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6005033258103284</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6012272862654027</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6019176832575668</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6025777196002207</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6032105380071361</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6038191882176031</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6044065560762923</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.604975377410048</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6055282064961832</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6060682737553377</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6694060614521475</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6592297089114214</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6503022969420282</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6427184127653429</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6364881241234478</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6315647880665585</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6278652553440199</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6252627564713035</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6236670041960396</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.622957756960149</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6230147536940623</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6237221378322793</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6249709884666175</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6266607144462759</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6286997882232437</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6310060187110501</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.633506498590099</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6361373252919207</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.638843168912602</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6415767410881351</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6442982045965978</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6469745528489623</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6495789805444147</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6520902608948757</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6544921404457023</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6567727592484686</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6589241016905623</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6609414814428849</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6628230625945832</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6646028428314155</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6662402349613855</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6677423624747042</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6690920945445903</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6703276696710242</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6714555574976745</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6724832361081207</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6734186243879293</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6742698487468221</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6750450693229781</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6757523459382593</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6763995124881056</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.676994091690176</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6775432288337579</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.67804196959971</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6937005633658484</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.690105354973126</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6866782130390986</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6836008818545964</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6809791313536618</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6788648314964635</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6772721719434431</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6761639649882549</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.675557898234787</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6753953238415024</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6756307030687924</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6762156197135897</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.677101259876425</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6782400766472931</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6795869135506323</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6810997317221249</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6827400444655526</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6844731364781796</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6862681257797186</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6880979120477589</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6899390443386901</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6917715331204878</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6935786254763232</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6953465577502903</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6970642964245654</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6987232753632449</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.7003171355252837</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.7018414716833761</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.703293589472529</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7046937363581203</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.706012831477592</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.707254136906747</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7084075248558162</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.709495137673142</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7105196886069197</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7114845738295406</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7123935897544269</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.713250788686838</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7140603655187499</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7148265504436114</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7155535790244137</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7162455755620333</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7169065236900719</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7175381276081996</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6891743480382148</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6872612496388433</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6861508541619736</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6857711835776912</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6860409040292629</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6868747332496703</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6881873639883243</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6898301189726872</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6918643013336672</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6941449828181396</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6966065208282055</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6991904346353952</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7018453531873945</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7045268510488579</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7071971460126579</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7098246976227474</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7123837417243197</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7148537884621077</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7172191046801465</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7194681965123922</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7215933038619802</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7235899152385765</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7254563088868907</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7271931241556412</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.728802965512186</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7302900404126307</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7316598313176286</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7329188014424046</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7340741333000326</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7351232198457631</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7360842567330107</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7369655972736228</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7377870760677724</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7385437683135374</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7392436591251431</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7398942392347425</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7405025615644681</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.741075208560274</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7416182653172622</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.742137272326124</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.742637326478946</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7431229661333753</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7435982264742362</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7440739293846448</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.6890101168672302</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6834023603087493</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6794963478307378</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6771753841077286</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6762830918519255</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6766429436939353</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.678071852272349</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6802915483303765</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6833322162682769</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.686931836809442</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6909461671023173</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6952464706778279</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6997200759595397</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7042700146089499</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7088142564970429</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7132847042208308</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7176260489631439</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7217945599306451</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7257568588974939</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7294887161121754</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7329738925144221</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7362030448437156</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.739172704051879</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7418843329012387</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7443434653193262</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7465589276791903</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7485421404484156</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7503064974267063</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7518668189429787</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7532384604486042</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7544340070939616</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7554724018948477</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7563737837191026</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7571530035702005</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7578250088891376</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7584045497348371</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7589055899770916</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7593411722255607</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7597233493730429</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.760063145049361</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7603705577978424</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7606545349418712</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7609230119317004</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7611797558494756</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.295293859543072</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.299073334072783</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.303476823801398</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.308180345692139</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.312961618630606</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.317672631302241</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.322219290146409</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.326742683366451</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.330817047994853</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.334635441496349</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.33820241658643</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.3415312734197</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.34464061091677</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.347551886901084</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.350287677219048</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.352870454558738</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.355321755929062</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.357661639984496</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.35990835928424</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.362078190590256</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.364185379959381</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.366242169766932</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.368258882719708</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.370244043973986</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.372204527116587</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.374145713330763</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.376071655807786</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.377985243572614</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.379888360514498</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.381620090772244</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.383357171280397</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.385096398423722</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.386988838944943</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.388866602783012</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.39072919962018</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.392575648503358</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.394404712256406</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.396215007043664</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.398005083628064</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.399773510169201</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.401518858776465</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.403239814060416</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.404935174969383</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.406743069163297</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-1.008389131167212</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.011734406888354</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.015472052335457</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.01936842351656</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.023265211400456</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.027059039068519</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.030686300345193</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.034276650247543</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.037481436091388</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.040468360379917</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.043245330933515</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.045826568752524</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.048229790889509</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.050474385180027</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.052580129922052</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.054566307000324</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.056451108371627</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.058251261088401</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.059981814039235</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.061656043141753</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.063285442032346</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.064879773168791</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.06644716029012</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.067994207805481</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.069526136242003</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.071046925621342</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.072559460745856</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.074065674003251</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.075566682553765</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.076929038657826</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.07829839264934</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.079671444605934</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.081173619647374</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.082665014307028</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.084145227195273</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.085613184639141</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.087067613289228</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.088507149222323</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.089930403767088</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.09133602546687</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.092722698441137</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.094089218416179</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.095434495364141</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.096874413929454</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8823624978552471</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8848201527366417</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8876051595593368</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8905037924657581</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8933769123631503</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.896138822507079</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8987416761237812</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.9013377041944581</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.9035706485423767</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9056277008217821</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.9075240204889271</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.9092792151927658</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9109147028507842</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.9124520752733459</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.9139120087394917</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9153135636395782</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9166737687467514</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9180074124940887</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9193269827652808</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.9206427110787646</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.9219626879392364</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.9232930244190855</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.9246380413546047</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9260004723725789</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9273816706573347</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9287818121941765</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9302000903849821</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9316348985798191</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9330839983223915</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.934407690410759</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.935752010340036</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9371108246408635</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.938611822788788</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9401076623206742</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9415960386117854</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9430741944848137</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.94453938463558</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.945988975895349</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9474205023165077</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9488317028368536</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9502205437873809</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9515852427495478</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9529242702557417</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9543605766066254</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6458349157511332</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6478268151127519</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6501082548123012</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.652497313040693</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.654874490225515</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6571652901865616</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6593272855533072</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6614766912694511</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6633338276466748</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6650428119106022</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6666155803304528</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6680678865445673</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6694171600952931</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.670681109813881</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6718767840302383</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6730199620726958</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6741247892330035</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6752035892088427</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6762668040758798</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6773230240079002</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6783790782452679</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6794401659086173</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6805100106869902</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6815910275893228</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6826844931321839</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6837907127710922</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6849091812405794</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6860387328821399</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6871776801112314</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6882124476679772</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6892616676057277</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6903206871158262</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6914934617925826</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.692660646406937</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6938203212295596</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6949703230072735</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6961085062416599</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6972328153839027</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6983413287316699</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6994322958023245</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.7005041333359945</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7015554680084549</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7025851294833015</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.7036932790045686</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.05897306745610977</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.06114023480184987</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.06335934569413391</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.06555364363179528</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.06767242229332011</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.06968389930203242</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.07156994238576123</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.07338597793108373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07500296276242537</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.07648740011525061</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.07784550010379475</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.0790855151726004</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.08021680372659455</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.08124919957813898</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.08219256599676718</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.08305648490820407</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08385004723358251</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08458171888553492</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08525926308680248</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.08588970428857748</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.08647932245585166</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.08703366914263067</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.08755759880957331</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.08805531039379076</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.08853039533887268</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08898588921765097</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08942432479470555</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08984778492863997</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.09025795414261437</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.09058761788371232</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.09091171066960463</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.0912300341184709</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09160886422521888</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09197717111138755</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09233551122136321</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.0926841718218492</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09302329778661832</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09335293275434964</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09367304816409672</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09398356833162268</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09428438381943918</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.0945753746781432</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09485641970397177</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.09518847431320748</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8704014032655037</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8726591432590227</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8749817572522161</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8772232508007969</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8792993613875708</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8811689012445484</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8828200713688539</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8844342972811255</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8856758488341553</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8867531646484864</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.887695808588897</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8885343730583706</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8892983673405793</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8900150526848805</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8907087579795215</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8914005278181594</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8921080073023508</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8928454928762356</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8936240962180255</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8944519815775391</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8953346471074125</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8962752284715253</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8972748089077485</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8983327244096899</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8994468561042626</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.900613904490154</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.9018296421587928</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.903089143091121</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.9043869877229723</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.9056046821872851</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.9068588427232664</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.9081409784059223</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9095535275544649</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9109726549722581</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9123939254696518</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9138126622959348</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9152244333532213</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9166251386619917</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9180110498711489</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9193788376683282</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.920725560055778</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.922048691547808</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9233461016735343</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9247215964886806</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8704014032655037</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8726591432590227</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8749817572522161</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8772232508007969</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8792993613875708</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8811689012445484</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8828200713688539</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8844342972811255</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8856758488341553</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8867531646484864</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.887695808588897</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8885343730583706</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8892983673405793</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8900150526848805</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8907087579795215</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8914005278181594</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8921080073023508</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8928454928762356</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8936240962180255</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8944519815775391</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8953346471074125</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8962752284715253</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8972748089077485</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8983327244096899</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8994468561042626</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.900613904490154</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.9018296421587928</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.903089143091121</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.9043869877229723</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.9056046821872851</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.9068588427232664</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.9081409784059223</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9095535275544649</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9109726549722581</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9123939254696518</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9138126622959348</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9152244333532213</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9166251386619917</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9180110498711489</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9193788376683282</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.920725560055778</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.922048691547808</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9233461016735343</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.9247215964886806</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.141722868807981</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.145282194139508</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.149156315235995</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.153139941229931</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.157095254777643</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.160933494006809</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.164601323469058</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.16829729942206</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.171548822875925</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.174594351694197</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.177443709651621</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.180112165169679</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.182617936697057</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.184980538352392</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.187219612260691</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.189354116931341</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.191401783400498</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.1933787727453</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.195299484226614</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.197176475081433</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.199020461936709</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.200840380677312</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.202643486893949</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.204435483143688</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.206220662457751</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.208002060037945</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.209781607051909</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.211560281987478</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.213338256248831</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.214948810549661</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.216570731592804</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.218199855225566</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.219994476797525</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.221777864567372</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.223548839260373</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.225305699585703</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.227046598149285</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.228769644951578</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.230472974105981</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.232154783980018</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.233813407497569</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.23544731142028</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.237055125507101</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.238786279688294</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1817085599351241</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1828644931588665</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.184069974970744</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1852574354635717</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1863883419487193</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1874438806466122</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1884182858568146</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1894031169933919</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1902256710059435</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.190987043052143</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1916982937573837</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.192370666499751</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1930147258756652</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1936399357119647</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.194254443942452</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1948650030645181</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1954769819431693</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1960944374401967</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1967202231402464</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1973561188824414</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1980029695485586</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1986608250530151</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1993290760502646</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.2000065817599906</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.2006917876858259</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.2013828319998489</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.202077640080032</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.2027740071936174</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.2034696696701706</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.2040879224714414</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2047064664079091</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2053218530421679</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2060051421866274</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2066755591273856</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2073319714762864</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2079731235768705</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2085978707200304</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2092052129293122</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2097943058992623</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2103644491138321</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2109151320840143</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2114459816322684</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2119567702297206</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2125191384023991</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.015641561129154</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.020136419115477</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.025141740150018</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.030352967608124</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.035563356075017</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.04063704109488</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.045489221001069</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.050192189655506</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.054486278876836</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.058482195939303</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.062186876484431</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.065615629943001</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.068788603995649</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.071728513408343</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.074459045901769</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.077003750058991</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.079385278966712</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.081624896719215</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.083742178346454</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.085754851068202</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.087678737730615</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.089527773000607</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.091314070209596</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.093048022261028</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.094738424194981</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.096392608171088</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.09801658403636</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.09961518047288</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.101192183111536</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.102596244783907</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.103998863688644</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.105397924387437</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.106939265262444</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.108462128753359</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.109967978550308</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.111457224956734</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.112929847705921</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.114385540011616</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.115823797242053</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.11724398148351</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.118645391073542</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.12002729541976</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.121388972073494</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.122860776764435</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.8933583065924002</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8973349743387681</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.9016438397826232</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9060448725997901</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.9103811166916433</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9145547209112593</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9185094599371348</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9223056101003962</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9257633206539834</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.928971274560168</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9319432231571494</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9346976944804346</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9372556177059856</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9396386575097695</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9418680907484334</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9439640785377494</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9459452234187615</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9478283300211707</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9496283090263369</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9513581801131443</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9530291413704836</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9546506814354254</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.956230717142031</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9577757443149254</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9592909929392515</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9607805806009382</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9622476600549933</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.963694558221869</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9651229049655836</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.966421420912903</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9677131635262994</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9689962383153597</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9703748302154798</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9717340136710664</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9730738170265465</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9743940559404849</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9756943780671413</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9769743308066489</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9782334161099431</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9794711446742298</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9806870268402114</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9818806412964423</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9830516344598581</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.984294949805715</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9543023850618871</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9542585851042965</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9551317908380637</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9567678058676972</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9590306256777934</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9618006007570123</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9649728051308067</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.968557933288279</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9722683331147822</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9761412967627616</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9801171382448975</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9841451209786853</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9881823269176251</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.992192804035725</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9961468024168749</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-1.000020077864214</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-1.00379325598767</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.007451251516247</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.010982738302503</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.014379666037349</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.017636820156877</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.020751421813624</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.023722765110495</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.026551889063352</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.029241281975237</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.031794616078932</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.034216510442399</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.036512320241101</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.038687950588802</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.040637479605206</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.04248512939965</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.04423683930642</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.046009680116793</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.047693697948819</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.049295891081902</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.050822727697312</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.052280357021446</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.053674601387089</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.055010938489814</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.056294490889322</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.057530018660669</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.058721917428234</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.059874224300133</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.061094581707333</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.1279569902152</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.123906468514729</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.120472977247599</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.117754444795471</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.115791989274732</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.114586288260853</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.114109912708311</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.114415588257402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.115231887379239</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.116610975613173</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.118484565453144</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.120783901173651</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.123441984496928</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.126394961023085</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.129583036407684</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.132951049881838</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.136448790534115</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.140031120814345</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.143657956658286</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.147294142235051</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.150909248631225</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.154477319141819</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.157976578740866</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.161389121377345</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.164700585701134</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.167899827454306</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.170978594903775</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.173931212220418</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.176754274536182</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.17937192358139</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.181855979653567</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.184209846826979</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.186519607052819</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.188708062821714</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.190779427382415</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.192738930356307</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.194592328184902</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.19634571984704</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.198005407243813</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.199577749108403</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.20106915744101</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.202485907426952</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.203834110462225</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.205211662141042</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8251346665621557</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8232488120568349</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.82151290746207</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8199908473703129</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8187284495225221</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8177560073560404</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.8170907419829483</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.816846088054714</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8167955519069813</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8170484504421139</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.8175898052694692</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8184007193411587</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.8194594618577846</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8207424350418185</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.8222249866166316</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8238820820421265</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.8256888532834572</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8276210397311166</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8296553354046576</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8317696551163664</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8339433309128218</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8361572488716972</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8383939352110912</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8406375996630628</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8428741431618362</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.845091136089084</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8472777725927807</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8494248058423149</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8515244684921293</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8534886098681539</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8553952868452623</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8572404343863734</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8591091377662414</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8609094074323016</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8626404967313804</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8643023260178282</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.865895462041113</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8674210311248675</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8688806319529474</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8702762082009101</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8716101174301981</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8728849082360202</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8741033118405835</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8753642969855533</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.4593793031559983</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4558054762997249</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4525358616623641</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4496711365742126</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4472717120324847</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4453672524436898</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4439642120313006</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4430677745413248</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4426204170620311</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4426091397157134</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4429959338648838</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4437395219221112</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4447970342895678</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4461254105958459</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4476824756691055</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4494277436758249</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4513230012057765</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4533327113491834</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4554242732959856</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4575681658907195</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.459737998632643</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4619104895807173</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4640653863189941</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4661853434130878</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4682557675275996</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4702646394872897</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4722023209803433</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4740613522643212</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4758362461001613</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4774814592997279</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4790342558055914</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4804943713091276</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4819128864918469</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4832419575606202</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4844840857309891</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4856422811385694</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4867200920674543</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4877214876167107</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4886507421981716</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.489512276213119</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4903107482100481</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4910507817446969</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4917369692238344</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.49243435221785</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3779186445405608</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3789730763690586</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3798825759032985</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3806587763822636</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3813134327790871</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3818582983153354</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3823049713177498</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3826449270363945</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.382930944457437</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3831505354388582</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3833136737622406</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3834295234070471</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.383506511457152</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3835523321445912</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3835739569304329</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3835776538610972</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3835690141965808</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3835529842940497</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3835339010981776</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3835155299365585</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3835011036069726</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3834933619732673</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3834945914653129</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3835066640151773</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3835310750655777</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3835689803659927</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3836212313333279</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3836884088029195</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3837708550358093</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3838928684081264</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3840287537699821</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3841786302686705</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.384317201027147</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3844708806548702</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3846389174131982</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3848206250132409</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3850152887957354</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3852221698613731</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3854405156531304</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3856695783884151</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3859085962518877</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3861568299834762</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3864135588018026</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3866530113173816</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.185996493176561</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.187637246080441</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.190138586162646</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.193398026379271</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.197314333544303</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.20178849033458</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.206724825726154</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.211994538804272</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.217605614265914</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.223420967792808</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.229366780387048</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.235377245580396</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.241393894565703</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.247365491360726</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.253247852607456</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.259003565114615</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.264601621535538</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.270016996135561</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.275230180140555</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.280226693285033</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.284996585385972</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.289533939206567</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.293836383601467</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.297904623963255</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.301741995305148</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.305354041890299</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.308748126122372</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.311933068414418</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.314918818924946</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.317563338964342</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.320039761074298</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.322357926854563</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.324685906790888</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.326867346891362</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.328915691536972</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.330842916076819</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.332660367769914</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.334378782541678</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.336008250128719</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.337558088069109</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.339037145768024</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.340453456799237</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.341814366367528</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.343273938447645</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.6537715470446075</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6443588573708094</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6356072998948823</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6275473851427594</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6201983830032609</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6135691709129</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6076591277925748</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.6025916793280698</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5980611170979183</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5942048912625949</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5909927814151691</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.588391039541095</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5863624439116718</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5848671365342399</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5838634635401858</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5833087494650229</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5831599947518012</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5833744928265875</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5839103658028694</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5847270199068728</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.585785523349361</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5870489106351024</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5884824182304055</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5900536571421977</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.591732728343175</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5934922871503068</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5953075626691007</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.597156338289679</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5990188989940307</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.6008508781364857</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6026630895635565</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6044411930441903</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6062100003333102</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6079265495930597</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6095850551753303</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6111802253584065</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6127081471004503</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6141662115266832</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6155529686931899</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6168679807850741</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.618111685946707</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6192852715810739</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6203905470824618</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6214843002249234</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.906949674845289</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.9017266760421799</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8971439892902503</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8932954288039703</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8902162750462141</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8879019028951871</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8863212030596908</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8855802993844487</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8852988407891432</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8855844738248285</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8863718277534679</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8875965812969759</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.889196752047165</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8911137115318883</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8932928239410796</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8956838009869676</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8982408531524427</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.9009226966754407</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.9036924594878295</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.9065175175432468</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9093692844141198</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.9122229708372023</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9150573263945129</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.9178543722609297</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9205991315864953</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.923279362359738</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9258852963357687</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9284093866779453</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9308460662599896</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9330940276472217</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9352485275278495</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9373091284582501</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.939384237094999</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9413649029363802</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9432535415902132</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.94505289130935</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.946766208088294</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.948397159602495</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9499497123859283</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9514279913884167</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9528363297271842</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9541790526971591</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9554604679644776</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.956802022216926</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.06629458545371421</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.0638332302547395</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.06133864975403938</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.05894069866862965</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.05673330454505528</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.05478119732143175</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.05312555443957145</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.05179578376569001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.05078549810789025</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.05009750539227462</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.0497189760665776</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.04963099336809425</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.04981013590595296</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.05023003585123908</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.05086266450354487</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.05167936555605253</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.0526516721846975</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.05375194081058131</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.05495383020320754</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.05623265083391175</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.05756560608689618</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05893194403610949</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.06031303594974856</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.06169239544770916</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06305565027403376</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06439047692413721</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06568650685699085</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06693521170047451</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06812977370156399</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06924247607067194</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07028888402658565</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07126656994797242</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07220467030265997</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07307499260913433</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07387844380456496</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07461623368230885</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07529015739381124</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07590251262634702</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.07645599732434132</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.07695355648586706</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.07739848414311752</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.07779414906476932</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.07814399882151254</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.07849308445982278</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7700531741250994</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7697796552231156</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7703011942219709</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7715455093011149</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7734348294349891</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7758888661751668</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7788272139213339</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7821114411730933</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7857972857552605</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7897419434679039</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7938790119273677</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7981479036200061</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.8024939273806905</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.8068683538032773</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.8112283568083004</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8155368499088653</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.8197622415774651</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.823878130928122</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.82786296145106</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8316996474591134</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8353751852576281</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8388802587976948</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8422088476693164</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8453578436878083</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8483266809773378</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8511169833190245</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8537322315724712</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8561774531699579</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.858458934998261</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8604921921988418</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8623804743103092</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8641321381646656</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8658508025911525</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8674457937237378</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8689268786502156</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8703034551008176</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8715846517409233</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8727792659488922</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8738957029233051</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8749418911669159</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8759253676195817</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.876853121362595</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8777316285454912</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.8786577961103775</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7453659197570702</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7478304072076809</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7502535933418365</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.7527451666134033</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7553757933990032</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7581860650046677</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7611937059710332</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7643612650725233</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7677611865896469</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7713253912169842</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7750285232035716</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7788412100452397</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7827324175197796</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7866709147887163</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7906263544503358</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7945700645963095</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7984756082231257</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.802319154125812</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.8060796959790745</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.8097391503086461</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8132823590623398</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.8166970183002954</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.819973550986755</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8231049388649979</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8260865258417871</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8289158031259577</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8315921845001708</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8341167785089507</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8364921629817141</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8386661322183618</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8406955898849648</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8425882759917491</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8444112769736317</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8461148224380274</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8477051915807459</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8491895540044833</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8505752558181267</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8518696588383822</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8530800391917943</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8542134850301429</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8552768985352668</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8562768628639398</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8572196320908223</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8581762562798905</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_9.xlsx
+++ b/PLSstatic_predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2660169296433519</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2665250910628918</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2339220552706113</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2341447078459822</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2162440440257902</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2161897817051027</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.08472372126575578</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.08488271806265973</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.186755342181846</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1870694228774736</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4317431411650408</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.432446401730379</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.154864883085145</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1552759788319435</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3552496468914937</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3557747447604234</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.3971961151015246</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.3974883652270219</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.2274905933148743</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2279752350393087</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1216297655326943</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1217399496074797</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.0660692480980126</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.06615185460917132</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.0243965120414897</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.02482071480611916</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1309481446277142</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1305714770856299</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2957592146403717</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2965720408804653</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.431307522823639</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4324929109613387</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.1750983679606207</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1748292683484994</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.2884782205014592</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.2889584774622942</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1840157591601955</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.1848104415612503</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.494554491507209</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.4953940816330793</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2506789067627793</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.2516020847814719</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1908621291348055</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1904812718095814</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.475245042402194</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.480928854675287</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3428571575464242</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.3435717854614582</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1547939043572897</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.155421940151472</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05545810004951952</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.056081348694908</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8888737213256983</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8902550035506487</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.809566975240971</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.816198908792942</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7088510651898584</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7099937097760202</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4387493458772433</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.43886510486488</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5901701790548821</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5910074180565106</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8056146521257319</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8065267538162163</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8632874284325334</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8638914978088508</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8600868654557684</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8607777224262962</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8274513041101517</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8279943830461032</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.7917309595566415</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7922459533585627</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6869814869338576</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.6876867922344242</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.638064411393503</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6384398410120716</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.8206852705350116</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8213173675045411</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6055282064961832</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6060682737553377</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6775432288337579</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.67804196959971</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7169065236900719</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7175381276081996</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7435982264742362</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7440739293846448</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7609230119317004</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7611797558494756</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.404935174969383</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.406743069163297</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.095434495364141</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.096874413929454</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9529242702557417</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9543605766066254</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.7025851294833015</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.7036932790045686</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.09485641970397177</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.09518847431320748</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.9233461016735343</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.9247215964886806</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.9233461016735343</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.9247215964886806</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.237055125507101</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.238786279688294</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.2119567702297206</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.2125191384023991</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.121388972073494</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.122860776764435</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9830516344598581</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.984294949805715</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.059874224300133</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.061094581707333</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.203834110462225</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.205211662141042</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8741033118405835</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8753642969855533</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4917369692238344</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.49243435221785</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.3864135588018026</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3866530113173816</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.341814366367528</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.343273938447645</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.6203905470824618</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6214843002249234</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.9554604679644776</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.956802022216926</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.07814399882151254</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.07849308445982278</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8777316285454912</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.8786577961103775</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8572196320908223</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8581762562798905</v>
       </c>
     </row>
   </sheetData>
